--- a/dragon-verse/Excels/Obbycheck_检查点表.xlsx
+++ b/dragon-verse/Excels/Obbycheck_检查点表.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,46 +27,506 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>checkpointloc</t>
+  </si>
+  <si>
+    <t>splashpointloc</t>
+  </si>
+  <si>
+    <t>splashscale</t>
+  </si>
+  <si>
+    <t>检查点世界坐标</t>
+  </si>
+  <si>
+    <t>检查点光效世界坐标</t>
+  </si>
+  <si>
+    <t>检查点光效缩放</t>
+  </si>
+  <si>
+    <t>392379.56|13370.56|24797.14</t>
+  </si>
+  <si>
+    <t>392361.81|13367.91|24423.24</t>
+  </si>
+  <si>
+    <t>2.0|2.0|2.0</t>
+  </si>
+  <si>
+    <t>397763.56|13370.56|24797.15</t>
+  </si>
+  <si>
+    <t>397775.81|13367.91|24423.24</t>
+  </si>
+  <si>
+    <t>403052.56|13440.56|24797.14</t>
+  </si>
+  <si>
+    <t>403060.81|13439.91|24423.24</t>
+  </si>
+  <si>
+    <t>403052.56|8170.56|24797.14</t>
+  </si>
+  <si>
+    <t>403062.81|8183.91|24380.24</t>
+  </si>
+  <si>
+    <t>403052.56|2385.56|24797.14</t>
+  </si>
+  <si>
+    <t>403075.81|2367.91|24380.24</t>
+  </si>
+  <si>
+    <t>403052.56|-2048.44|24797.14</t>
+  </si>
+  <si>
+    <t>403069.81|-2037.09|24362.24</t>
+  </si>
+  <si>
+    <t>397615.56|-2031.44|24797.14</t>
+  </si>
+  <si>
+    <t>397614.81|-2037.09|24362.24</t>
+  </si>
+  <si>
+    <t>391056.56|-1271.44|24797.14</t>
+  </si>
+  <si>
+    <t>391048.81|-1278.09|24362.24</t>
+  </si>
+  <si>
+    <t>391332.56|4027.56|24797.14</t>
+  </si>
+  <si>
+    <t>391389.81|4010.91|24309.24</t>
+  </si>
+  <si>
+    <t>391332.56|6633.56|24797.14</t>
+  </si>
+  <si>
+    <t>391389.81|6641.91|24330.24</t>
+  </si>
+  <si>
+    <t>391436.56|9573.56|24797.14</t>
+  </si>
+  <si>
+    <t>391389.81|9577.91|24332.24</t>
+  </si>
+  <si>
+    <t>393375.56|11929.56|24797.14</t>
+  </si>
+  <si>
+    <t>393352.81|11919.91|24392.24</t>
+  </si>
+  <si>
+    <t>397970.56|11929.56|24797.14</t>
+  </si>
+  <si>
+    <t>397951.81|11931.91|24392.24</t>
+  </si>
+  <si>
+    <t>399290.56|7349.56|24797.14</t>
+  </si>
+  <si>
+    <t>399278.81|7343.91|24459.24</t>
+  </si>
+  <si>
+    <t>399290.56|631.56|24797.14</t>
+  </si>
+  <si>
+    <t>399273.81|640.91|24430.24</t>
+  </si>
+  <si>
+    <t>394014.56|613.56|24797.14</t>
+  </si>
+  <si>
+    <t>394016.81|640.91|24401.24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -73,35 +535,314 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -150,7 +891,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -183,26 +924,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -235,23 +959,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -393,162 +1100,314 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="42"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="33.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="31.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>int[]</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>checkpointloc</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="59" r="3">
-      <c r="A3" s="1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>检查点世界坐标</v>
-      </c>
-    </row>
-    <row r="4"/>
-    <row r="5">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="59" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="str">
-        <v>392379.56|13370.56|24797.14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <v>397763.56|13370.56|24797.15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <v>403052.56|13440.56|24797.14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="str">
-        <v>403052.56|8170.56|24797.14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="str">
-        <v>403052.56|2385.56|24797.14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="str">
-        <v>403052.56|-2048.44|24797.14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="str">
-        <v>397615.56|-2031.44|24797.14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="str">
-        <v>391056.56|-1271.44|24797.14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="str">
-        <v>391332.56|4027.56|24797.14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="str">
-        <v>391332.56|6633.56|24797.14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <v>391436.56|9573.56|24797.14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/dragon-verse/Excels/Obbycheck_检查点表.xlsx
+++ b/dragon-verse/Excels/Obbycheck_检查点表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>int</t>
   </si>
@@ -153,6 +153,30 @@
   </si>
   <si>
     <t>394016.81|640.91|24401.24</t>
+  </si>
+  <si>
+    <t>393621.56|5529.56|24797.14</t>
+  </si>
+  <si>
+    <t>393600.81|5553.91|24401.24</t>
+  </si>
+  <si>
+    <t>395709.56|9890.56|24797.14</t>
+  </si>
+  <si>
+    <t>395718.81|9889.91|24401.24</t>
+  </si>
+  <si>
+    <t>396949.56|6277.56|24797.14</t>
+  </si>
+  <si>
+    <t>396967.81|6282.91|24401.24</t>
+  </si>
+  <si>
+    <t>395343.56|6189.56|24797.14</t>
+  </si>
+  <si>
+    <t>395348.81|6176.91|24401.24</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1135,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -1387,17 +1411,61 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1"/>

--- a/dragon-verse/Excels/Obbycheck_检查点表.xlsx
+++ b/dragon-verse/Excels/Obbycheck_检查点表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="11805" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>int</t>
   </si>
@@ -177,6 +177,66 @@
   </si>
   <si>
     <t>395348.81|6176.91|24401.24</t>
+  </si>
+  <si>
+    <t>403515.91|2638.22|31336.14</t>
+  </si>
+  <si>
+    <t>403477.94|2625.14|30877.23</t>
+  </si>
+  <si>
+    <t>403515.91|-891.78|31336.14</t>
+  </si>
+  <si>
+    <t>403518.81|-882.09|30880.23</t>
+  </si>
+  <si>
+    <t>401316.91|-2946.78|31336.14</t>
+  </si>
+  <si>
+    <t>401306.81|-2938.09|31013.23</t>
+  </si>
+  <si>
+    <t>396010.91|-3097.78|31267.14</t>
+  </si>
+  <si>
+    <t>396019.81|-3095.09|30841.23</t>
+  </si>
+  <si>
+    <t>391189.91|-3266.78|31267.14</t>
+  </si>
+  <si>
+    <t>391090.81|-3261.09|30841.23</t>
+  </si>
+  <si>
+    <t>389687.91|-2869.78|31706.14</t>
+  </si>
+  <si>
+    <t>389675.81|-2878.09|31229.23</t>
+  </si>
+  <si>
+    <t>389687.91|-260.78|31706.14</t>
+  </si>
+  <si>
+    <t>389686.81|-242.09|31252.23</t>
+  </si>
+  <si>
+    <t>389687.91|3663.22|31386.14</t>
+  </si>
+  <si>
+    <t>389614.81|3675.91|30841.23</t>
+  </si>
+  <si>
+    <t>389457.91|6803.22|31386.14</t>
+  </si>
+  <si>
+    <t>389460.81|6794.91|30876.23</t>
+  </si>
+  <si>
+    <t>390048.91|8570.22|31386.14</t>
+  </si>
+  <si>
+    <t>390054.81|8562.91|30876.23</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1192,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -1467,11 +1527,145 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1"/>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dragon-verse/Excels/Obbycheck_检查点表.xlsx
+++ b/dragon-verse/Excels/Obbycheck_检查点表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>int</t>
   </si>
@@ -237,6 +237,36 @@
   </si>
   <si>
     <t>390054.81|8562.91|30876.23</t>
+  </si>
+  <si>
+    <t>393397.53|8672.15|31400.97</t>
+  </si>
+  <si>
+    <t>393400.94|8666.14|31052.23</t>
+  </si>
+  <si>
+    <t>396374.53|8289.15|31400.97</t>
+  </si>
+  <si>
+    <t>396378.94|8299.14|31052.23</t>
+  </si>
+  <si>
+    <t>394144.53|7755.15|31599.97</t>
+  </si>
+  <si>
+    <t>394154.94|7762.14|31500.23</t>
+  </si>
+  <si>
+    <t>396558.53|8610.15|32502.97</t>
+  </si>
+  <si>
+    <t>396563.94|8594.14|32177.23</t>
+  </si>
+  <si>
+    <t>399253.53|8610.15|33974.97</t>
+  </si>
+  <si>
+    <t>399263.94|8611.14|33564.23</t>
   </si>
 </sst>
 </file>
@@ -1192,10 +1222,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -1667,6 +1697,76 @@
         <v>11</v>
       </c>
     </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
